--- a/careercrashcourse.com/input.xlsx
+++ b/careercrashcourse.com/input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
   <si>
     <t>url</t>
   </si>
@@ -35,6 +35,42 @@
   </si>
   <si>
     <t>The difference between product management and portfolio management - 副本</t>
+  </si>
+  <si>
+    <t>The difference between product management and portfolio management - 副本 (2)</t>
+  </si>
+  <si>
+    <t>The difference between product management and portfolio management - 副本 (3)</t>
+  </si>
+  <si>
+    <t>The difference between product management and portfolio management - 副本 (4)</t>
+  </si>
+  <si>
+    <t>The difference between product management and portfolio management - 副本 (5)</t>
+  </si>
+  <si>
+    <t>The difference between product management and portfolio management - 副本 (6)</t>
+  </si>
+  <si>
+    <t>The difference between product management and portfolio management - 副本 (7)</t>
+  </si>
+  <si>
+    <t>The difference between product management and portfolio management - 副本 - 副本 (2)</t>
+  </si>
+  <si>
+    <t>The difference between product management and portfolio management - 副本 - 副本 (3)</t>
+  </si>
+  <si>
+    <t>The difference between product management and portfolio management - 副本 - 副本 (4)</t>
+  </si>
+  <si>
+    <t>The difference between product management and portfolio management - 副本 - 副本 (5)</t>
+  </si>
+  <si>
+    <t>The difference between product management and portfolio management - 副本 - 副本 (6)</t>
+  </si>
+  <si>
+    <t>The difference between product management and portfolio management - 副本 - 副本</t>
   </si>
   <si>
     <t>2023-02-04</t>
@@ -395,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +465,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -443,7 +479,175 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/careercrashcourse.com/input.xlsx
+++ b/careercrashcourse.com/input.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
+  <si>
+    <t>index</t>
+  </si>
   <si>
     <t>url</t>
   </si>
@@ -28,49 +31,91 @@
     <t>comment</t>
   </si>
   <si>
-    <t>index</t>
+    <t>document</t>
+  </si>
+  <si>
+    <t>The difference between product management and portfolio management - 副本 (2)</t>
+  </si>
+  <si>
+    <t>The difference between product management and portfolio management - 副本 (3)</t>
+  </si>
+  <si>
+    <t>The difference between product management and portfolio management - 副本 (4)</t>
+  </si>
+  <si>
+    <t>The difference between product management and portfolio management - 副本 (5)</t>
+  </si>
+  <si>
+    <t>The difference between product management and portfolio management - 副本 (6)</t>
+  </si>
+  <si>
+    <t>The difference between product management and portfolio management - 副本 (7)</t>
+  </si>
+  <si>
+    <t>The difference between product management and portfolio management - 副本 - 副本 (2)</t>
+  </si>
+  <si>
+    <t>The difference between product management and portfolio management - 副本 - 副本 (3)</t>
+  </si>
+  <si>
+    <t>The difference between product management and portfolio management - 副本 - 副本 (4)</t>
+  </si>
+  <si>
+    <t>The difference between product management and portfolio management - 副本 - 副本 (5)</t>
+  </si>
+  <si>
+    <t>The difference between product management and portfolio management - 副本 - 副本 (6)</t>
+  </si>
+  <si>
+    <t>The difference between product management and portfolio management - 副本 - 副本</t>
+  </si>
+  <si>
+    <t>The difference between product management and portfolio management - 副本</t>
   </si>
   <si>
     <t>The difference between product management and portfolio management</t>
   </si>
   <si>
-    <t>The difference between product management and portfolio management - 副本</t>
-  </si>
-  <si>
-    <t>The difference between product management and portfolio management - 副本 (2)</t>
-  </si>
-  <si>
-    <t>The difference between product management and portfolio management - 副本 (3)</t>
-  </si>
-  <si>
-    <t>The difference between product management and portfolio management - 副本 (4)</t>
-  </si>
-  <si>
-    <t>The difference between product management and portfolio management - 副本 (5)</t>
-  </si>
-  <si>
-    <t>The difference between product management and portfolio management - 副本 (6)</t>
-  </si>
-  <si>
-    <t>The difference between product management and portfolio management - 副本 (7)</t>
-  </si>
-  <si>
-    <t>The difference between product management and portfolio management - 副本 - 副本 (2)</t>
-  </si>
-  <si>
-    <t>The difference between product management and portfolio management - 副本 - 副本 (3)</t>
-  </si>
-  <si>
-    <t>The difference between product management and portfolio management - 副本 - 副本 (4)</t>
-  </si>
-  <si>
-    <t>The difference between product management and portfolio management - 副本 - 副本 (5)</t>
-  </si>
-  <si>
-    <t>The difference between product management and portfolio management - 副本 - 副本 (6)</t>
-  </si>
-  <si>
-    <t>The difference between product management and portfolio management - 副本 - 副本</t>
+    <t>the-difference-between-product-management-and-portfolio-management---副本-(2)</t>
+  </si>
+  <si>
+    <t>the-difference-between-product-management-and-portfolio-management---副本-(3)</t>
+  </si>
+  <si>
+    <t>the-difference-between-product-management-and-portfolio-management---副本-(4)</t>
+  </si>
+  <si>
+    <t>the-difference-between-product-management-and-portfolio-management---副本-(5)</t>
+  </si>
+  <si>
+    <t>the-difference-between-product-management-and-portfolio-management---副本-(6)</t>
+  </si>
+  <si>
+    <t>the-difference-between-product-management-and-portfolio-management---副本-(7)</t>
+  </si>
+  <si>
+    <t>the-difference-between-product-management-and-portfolio-management---副本---副本-(2)</t>
+  </si>
+  <si>
+    <t>the-difference-between-product-management-and-portfolio-management---副本---副本-(3)</t>
+  </si>
+  <si>
+    <t>the-difference-between-product-management-and-portfolio-management---副本---副本-(4)</t>
+  </si>
+  <si>
+    <t>the-difference-between-product-management-and-portfolio-management---副本---副本-(5)</t>
+  </si>
+  <si>
+    <t>the-difference-between-product-management-and-portfolio-management---副本---副本-(6)</t>
+  </si>
+  <si>
+    <t>the-difference-between-product-management-and-portfolio-management---副本---副本</t>
+  </si>
+  <si>
+    <t>the-difference-between-product-management-and-portfolio-management---副本</t>
+  </si>
+  <si>
+    <t>the-difference-between-product-management-and-portfolio-management</t>
   </si>
   <si>
     <t>2023-02-04</t>
@@ -431,15 +476,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -453,201 +498,246 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/careercrashcourse.com/input.xlsx
+++ b/careercrashcourse.com/input.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
-  <si>
-    <t>index</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>url</t>
   </si>
@@ -31,94 +28,55 @@
     <t>comment</t>
   </si>
   <si>
+    <t>document.1</t>
+  </si>
+  <si>
     <t>document</t>
   </si>
   <si>
-    <t>The difference between product management and portfolio management - 副本 (2)</t>
-  </si>
-  <si>
-    <t>The difference between product management and portfolio management - 副本 (3)</t>
-  </si>
-  <si>
-    <t>The difference between product management and portfolio management - 副本 (4)</t>
-  </si>
-  <si>
-    <t>The difference between product management and portfolio management - 副本 (5)</t>
-  </si>
-  <si>
-    <t>The difference between product management and portfolio management - 副本 (6)</t>
-  </si>
-  <si>
-    <t>The difference between product management and portfolio management - 副本 (7)</t>
-  </si>
-  <si>
-    <t>The difference between product management and portfolio management - 副本 - 副本 (2)</t>
-  </si>
-  <si>
-    <t>The difference between product management and portfolio management - 副本 - 副本 (3)</t>
-  </si>
-  <si>
-    <t>The difference between product management and portfolio management - 副本 - 副本 (4)</t>
-  </si>
-  <si>
-    <t>The difference between product management and portfolio management - 副本 - 副本 (5)</t>
-  </si>
-  <si>
-    <t>The difference between product management and portfolio management - 副本 - 副本 (6)</t>
-  </si>
-  <si>
-    <t>The difference between product management and portfolio management - 副本 - 副本</t>
-  </si>
-  <si>
-    <t>The difference between product management and portfolio management - 副本</t>
-  </si>
-  <si>
-    <t>The difference between product management and portfolio management</t>
-  </si>
-  <si>
-    <t>the-difference-between-product-management-and-portfolio-management---副本-(2)</t>
-  </si>
-  <si>
-    <t>the-difference-between-product-management-and-portfolio-management---副本-(3)</t>
-  </si>
-  <si>
-    <t>the-difference-between-product-management-and-portfolio-management---副本-(4)</t>
-  </si>
-  <si>
-    <t>the-difference-between-product-management-and-portfolio-management---副本-(5)</t>
-  </si>
-  <si>
-    <t>the-difference-between-product-management-and-portfolio-management---副本-(6)</t>
-  </si>
-  <si>
-    <t>the-difference-between-product-management-and-portfolio-management---副本-(7)</t>
-  </si>
-  <si>
-    <t>the-difference-between-product-management-and-portfolio-management---副本---副本-(2)</t>
-  </si>
-  <si>
-    <t>the-difference-between-product-management-and-portfolio-management---副本---副本-(3)</t>
-  </si>
-  <si>
-    <t>the-difference-between-product-management-and-portfolio-management---副本---副本-(4)</t>
-  </si>
-  <si>
-    <t>the-difference-between-product-management-and-portfolio-management---副本---副本-(5)</t>
-  </si>
-  <si>
-    <t>the-difference-between-product-management-and-portfolio-management---副本---副本-(6)</t>
-  </si>
-  <si>
-    <t>the-difference-between-product-management-and-portfolio-management---副本---副本</t>
-  </si>
-  <si>
-    <t>the-difference-between-product-management-and-portfolio-management---副本</t>
-  </si>
-  <si>
-    <t>the-difference-between-product-management-and-portfolio-management</t>
-  </si>
-  <si>
-    <t>2023-02-04</t>
+    <t>5 steps to a great sharing function design</t>
+  </si>
+  <si>
+    <t>Business requirement management for corporate systems</t>
+  </si>
+  <si>
+    <t>How to break down complex process</t>
+  </si>
+  <si>
+    <t>How to design a 2b data table</t>
+  </si>
+  <si>
+    <t>How to design a corporate system UI</t>
+  </si>
+  <si>
+    <t>Intelligent B-side product analysis and design ideas</t>
+  </si>
+  <si>
+    <t>Saas Product Design Principle</t>
+  </si>
+  <si>
+    <t>5-steps-to-a-great-sharing-function-design</t>
+  </si>
+  <si>
+    <t>business-requirement-management-for-corporate-systems</t>
+  </si>
+  <si>
+    <t>how-to-break-down-complex-process</t>
+  </si>
+  <si>
+    <t>how-to-design-a-2b-data-table</t>
+  </si>
+  <si>
+    <t>how-to-design-a-corporate-system-ui</t>
+  </si>
+  <si>
+    <t>intelligent-b-side-product-analysis-and-design-ideas</t>
+  </si>
+  <si>
+    <t>saas-product-design-principle</t>
+  </si>
+  <si>
+    <t>2023-02-05</t>
   </si>
 </sst>
 </file>
@@ -476,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,16 +465,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -524,16 +482,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -541,16 +499,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -558,16 +516,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -575,16 +533,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
         <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -592,16 +550,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
         <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -609,135 +567,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
         <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/careercrashcourse.com/input.xlsx
+++ b/careercrashcourse.com/input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
   <si>
     <t>url</t>
   </si>
@@ -31,6 +31,9 @@
     <t>document.1</t>
   </si>
   <si>
+    <t>updated</t>
+  </si>
+  <si>
     <t>document</t>
   </si>
   <si>
@@ -76,7 +79,10 @@
     <t>saas-product-design-principle</t>
   </si>
   <si>
-    <t>2023-02-05</t>
+    <t>2023.2.5</t>
+  </si>
+  <si>
+    <t>2023.2.4</t>
   </si>
 </sst>
 </file>
@@ -434,15 +440,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -459,124 +465,148 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/careercrashcourse.com/input.xlsx
+++ b/careercrashcourse.com/input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>url</t>
   </si>
@@ -28,67 +28,79 @@
     <t>comment</t>
   </si>
   <si>
-    <t>document.1</t>
+    <t>document</t>
   </si>
   <si>
     <t>updated</t>
   </si>
   <si>
-    <t>document</t>
+    <t>Saas Product Design Principle</t>
+  </si>
+  <si>
+    <t>Intelligent B-side product analysis and design ideas</t>
+  </si>
+  <si>
+    <t>How to design a corporate system UI</t>
+  </si>
+  <si>
+    <t>How to design a 2b data table</t>
+  </si>
+  <si>
+    <t>How to break down complex process</t>
+  </si>
+  <si>
+    <t>Business requirement management for corporate systems</t>
   </si>
   <si>
     <t>5 steps to a great sharing function design</t>
   </si>
   <si>
-    <t>Business requirement management for corporate systems</t>
-  </si>
-  <si>
-    <t>How to break down complex process</t>
-  </si>
-  <si>
-    <t>How to design a 2b data table</t>
-  </si>
-  <si>
-    <t>How to design a corporate system UI</t>
-  </si>
-  <si>
-    <t>Intelligent B-side product analysis and design ideas</t>
-  </si>
-  <si>
-    <t>Saas Product Design Principle</t>
-  </si>
-  <si>
-    <t>5-steps-to-a-great-sharing-function-design</t>
+    <t>saas-product-design-principle</t>
+  </si>
+  <si>
+    <t>intelligent-b-side-product-analysis-and-design-ideas</t>
+  </si>
+  <si>
+    <t>how-to-design-a-corporate-system-ui</t>
+  </si>
+  <si>
+    <t>how-to-design-a-2b-data-table</t>
+  </si>
+  <si>
+    <t>how-to-break-down-complex-process</t>
   </si>
   <si>
     <t>business-requirement-management-for-corporate-systems</t>
   </si>
   <si>
-    <t>how-to-break-down-complex-process</t>
-  </si>
-  <si>
-    <t>how-to-design-a-2b-data-table</t>
-  </si>
-  <si>
-    <t>how-to-design-a-corporate-system-ui</t>
-  </si>
-  <si>
-    <t>intelligent-b-side-product-analysis-and-design-ideas</t>
-  </si>
-  <si>
-    <t>saas-product-design-principle</t>
-  </si>
-  <si>
-    <t>2023.2.5</t>
-  </si>
-  <si>
-    <t>2023.2.4</t>
+    <t>steps-to-a-great-sharing-function-design</t>
+  </si>
+  <si>
+    <t>Intelligent B-Side Product Analysis And Design Ideas</t>
+  </si>
+  <si>
+    <t>How To Design A Corporate System Ui</t>
+  </si>
+  <si>
+    <t>How To Design A 2B Data Table</t>
+  </si>
+  <si>
+    <t>How To Break Down Complex Process</t>
+  </si>
+  <si>
+    <t>Business Requirement Management For Corporate Systems</t>
+  </si>
+  <si>
+    <t>5 Steps To A Great Sharing Function Design</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -141,11 +153,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +461,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -471,142 +484,142 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44962.8495143871</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44961.85428629217</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44962.84912997793</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44961.82375342494</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
         <v>21</v>
       </c>
+      <c r="D4" s="2">
+        <v>44962.84897406979</v>
+      </c>
       <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>44961.84188760184</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44962.84882952934</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44961.82568583772</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44962.84868081223</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <v>44961.8562566831</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44962.8485411623</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44961.84418186066</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44962.8483842971</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44961.71146830391</v>
       </c>
     </row>
   </sheetData>

--- a/careercrashcourse.com/input.xlsx
+++ b/careercrashcourse.com/input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>url</t>
   </si>
@@ -34,46 +34,49 @@
     <t>updated</t>
   </si>
   <si>
+    <t>saas product design principle</t>
+  </si>
+  <si>
+    <t>intelligent b-side product analysis and design ideas</t>
+  </si>
+  <si>
+    <t>how to design a corporate system ui</t>
+  </si>
+  <si>
+    <t>how to design a 2b data table</t>
+  </si>
+  <si>
+    <t>how to break down complex process</t>
+  </si>
+  <si>
+    <t>business requirement management for corporate systems</t>
+  </si>
+  <si>
+    <t>5 steps to a great sharing function design</t>
+  </si>
+  <si>
+    <t>saas-product-design-principle</t>
+  </si>
+  <si>
+    <t>intelligent-b-side-product-analysis-and-design-ideas</t>
+  </si>
+  <si>
+    <t>how-to-design-a-corporate-system-ui</t>
+  </si>
+  <si>
+    <t>how-to-design-a-2b-data-table</t>
+  </si>
+  <si>
+    <t>how-to-break-down-complex-process</t>
+  </si>
+  <si>
+    <t>business-requirement-management-for-corporate-systems</t>
+  </si>
+  <si>
+    <t>steps-to-a-great-sharing-function-design</t>
+  </si>
+  <si>
     <t>Saas Product Design Principle</t>
-  </si>
-  <si>
-    <t>Intelligent B-side product analysis and design ideas</t>
-  </si>
-  <si>
-    <t>How to design a corporate system UI</t>
-  </si>
-  <si>
-    <t>How to design a 2b data table</t>
-  </si>
-  <si>
-    <t>How to break down complex process</t>
-  </si>
-  <si>
-    <t>Business requirement management for corporate systems</t>
-  </si>
-  <si>
-    <t>5 steps to a great sharing function design</t>
-  </si>
-  <si>
-    <t>saas-product-design-principle</t>
-  </si>
-  <si>
-    <t>intelligent-b-side-product-analysis-and-design-ideas</t>
-  </si>
-  <si>
-    <t>how-to-design-a-corporate-system-ui</t>
-  </si>
-  <si>
-    <t>how-to-design-a-2b-data-table</t>
-  </si>
-  <si>
-    <t>how-to-break-down-complex-process</t>
-  </si>
-  <si>
-    <t>business-requirement-management-for-corporate-systems</t>
-  </si>
-  <si>
-    <t>steps-to-a-great-sharing-function-design</t>
   </si>
   <si>
     <t>Intelligent B-Side Product Analysis And Design Ideas</t>
@@ -490,7 +493,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
         <v>44962.8495143871</v>
@@ -510,7 +513,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
         <v>44962.84912997793</v>
@@ -530,7 +533,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2">
         <v>44962.84897406979</v>
@@ -550,7 +553,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
         <v>44962.84882952934</v>
@@ -570,7 +573,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2">
         <v>44962.84868081223</v>
@@ -590,7 +593,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2">
         <v>44962.8485411623</v>
@@ -610,7 +613,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2">
         <v>44962.8483842971</v>
